--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1716.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1716.xlsx
@@ -351,7 +351,7 @@
         <v>0.7440058460688613</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>3.411824173618491</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1716.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1716.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7440058460688613</v>
+        <v>0.8165858387947083</v>
       </c>
       <c r="B1">
+        <v>1.907322525978088</v>
+      </c>
+      <c r="C1">
         <v>15</v>
       </c>
-      <c r="C1">
-        <v>3.411824173618491</v>
-      </c>
       <c r="D1">
-        <v>1.861921233985607</v>
+        <v>1.948338508605957</v>
       </c>
       <c r="E1">
-        <v>1.415494341793022</v>
+        <v>0.5562154054641724</v>
       </c>
     </row>
   </sheetData>
